--- a/Test caes.xlsx
+++ b/Test caes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afsanakeya/Documents/Automation/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B96643-1F93-A149-A9F4-C4498F9F03FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F31D5C-3C73-A94B-9013-2742768BBC6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="7040" windowWidth="24240" windowHeight="14320" xr2:uid="{3C60E9F7-77D8-7644-B701-5E6B3F85561F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{3C60E9F7-77D8-7644-B701-5E6B3F85561F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -98,9 +98,6 @@
     <t>hello</t>
   </si>
   <si>
-    <t>hello,How are you doing?</t>
-  </si>
-  <si>
     <t>Sucessfully sent the mail to sender</t>
   </si>
   <si>
@@ -125,16 +122,13 @@
     <t>Select Delete</t>
   </si>
   <si>
-    <t>Assert "Write message body in the message field"</t>
-  </si>
-  <si>
     <t>Assert"Your message has been sent"</t>
   </si>
   <si>
     <t>Assert messge has been deleted</t>
   </si>
   <si>
-    <t>Sihn</t>
+    <t>Assert "successfully composed mail"</t>
   </si>
 </sst>
 </file>
@@ -525,7 +519,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,10 +653,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -670,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -733,13 +724,10 @@
       <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -747,10 +735,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -791,32 +779,32 @@
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
